--- a/test-data/7월_용역자명단_root.xlsx
+++ b/test-data/7월_용역자명단_root.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78915B35-8E47-4CAF-ABA8-C7C53B248AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4FFE4A-CF4A-49C0-9BD3-B4EFBCBEE25B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="195" yWindow="60" windowWidth="22125" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2385" windowWidth="21060" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용역자명단" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>순번</t>
   </si>
@@ -127,6 +127,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -542,27 +546,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="12" width="20" customWidth="1"/>
-    <col min="13" max="14" width="15" customWidth="1"/>
+    <col min="2" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="13" width="20" customWidth="1"/>
+    <col min="14" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,43 +574,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -617,40 +624,43 @@
         <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -661,40 +671,43 @@
         <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -705,36 +718,39 @@
         <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
